--- a/Conductivity Results.xlsx
+++ b/Conductivity Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Arduino basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90E52C-0F5A-4E23-A2EE-40AD3C4E329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE3C64-3419-4ED8-A1E7-E085A4ED76E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE4681DF-1BEB-4CDB-A6A6-64562EEF717F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{FE4681DF-1BEB-4CDB-A6A6-64562EEF717F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Conductivity Values</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage error </t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>12.35 P.M.</t>
   </si>
 </sst>
 </file>
@@ -142,9 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +471,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,12 +484,11 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -525,18 +532,48 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97.66</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E6" si="0">(D5/0.55)</f>
+        <v>177.56363636363633</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="1">((E5-C5)/C5*100)</f>
+        <v>8.4027084027083774</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3">
+        <v>45302</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>196.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>114.75</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>208.63636363636363</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6.2844440327883913</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
